--- a/history/zakupki_08_03.xlsx
+++ b/history/zakupki_08_03.xlsx
@@ -265,6 +265,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -285,6 +286,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -357,17 +359,17 @@
   </sheetPr>
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N2:N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="66.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="110.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="36.17"/>
@@ -375,8 +377,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="44.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="153.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="36.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="36.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="95.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.6"/>
